--- a/historicalDataExtractionDistPercentOfNav.xlsx
+++ b/historicalDataExtractionDistPercentOfNav.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="440" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="10620" yWindow="440" windowWidth="27040" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="historicalDataExtraction.csv" sheetId="1" r:id="rId1"/>
@@ -2951,8 +2951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H86" workbookViewId="0">
-      <selection activeCell="AG64" sqref="AG64:AG120"/>
+    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
